--- a/Piano di Progetto/Preventivo/CodDettaglioValidazioneCollaudo.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/CodDettaglioValidazioneCollaudo.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072EF2A3-6AB5-45A1-81F2-D450AE57D38D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD1ADB-4EE6-4253-826E-9FC487FC7C79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +194,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -255,6 +261,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9587-40CA-B843-047D36477203}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -272,6 +283,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9587-40CA-B843-047D36477203}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -287,6 +303,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9587-40CA-B843-047D36477203}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -304,6 +325,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9587-40CA-B843-047D36477203}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -321,6 +347,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9587-40CA-B843-047D36477203}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -405,7 +436,7 @@
                 <c:pt idx="3">
                   <c:v>300</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="4" formatCode="#,##0">
                   <c:v>1350</c:v>
                 </c:pt>
               </c:numCache>
@@ -1347,7 +1378,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,8 +1463,7 @@
       <c r="B7" s="9">
         <v>90</v>
       </c>
-      <c r="C7" s="9">
-        <f>15*B7</f>
+      <c r="C7" s="13">
         <v>1350</v>
       </c>
     </row>
@@ -1445,8 +1475,7 @@
         <f>SUM(B2:B7)</f>
         <v>150</v>
       </c>
-      <c r="C8" s="11">
-        <f>SUM(C2:C7)</f>
+      <c r="C8" s="14">
         <v>2630</v>
       </c>
     </row>

--- a/Piano di Progetto/Preventivo/CodDettaglioValidazioneCollaudo.Economico.xlsx
+++ b/Piano di Progetto/Preventivo/CodDettaglioValidazioneCollaudo.Economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panoz\Documents\GitHub\Marvin\Piano di Progetto\Preventivo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD1ADB-4EE6-4253-826E-9FC487FC7C79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3170E43-88EF-42C7-A8C2-B258BA7E5345}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{A9C5908B-2465-420D-9242-B7F005395B64}"/>
   </bookViews>
@@ -362,13 +362,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -499,7 +497,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1100" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -1464,6 +1462,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="13">
+        <f>15*B7</f>
         <v>1350</v>
       </c>
     </row>
@@ -1476,6 +1475,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="14">
+        <f>SUM(C2:C7)</f>
         <v>2630</v>
       </c>
     </row>
